--- a/batches/22/day_18/day_18.xlsx
+++ b/batches/22/day_18/day_18.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shira/Documents/work/acciojob/modules/sql/batches/22/day_18/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB5A3BA0-30B7-5E47-9BD0-40AC6D098054}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9970B461-F6C2-5545-A152-F91989C16D73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="29400" yWindow="0" windowWidth="38400" windowHeight="21600" activeTab="2" xr2:uid="{0A60FC84-22E3-E348-BBA8-1C81CC38EB22}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="198">
   <si>
     <t>database</t>
   </si>
@@ -1188,6 +1188,231 @@
   </si>
   <si>
     <t>read</t>
+  </si>
+  <si>
+    <t>2s</t>
+  </si>
+  <si>
+    <t>3s</t>
+  </si>
+  <si>
+    <t>0.2s</t>
+  </si>
+  <si>
+    <t>0.5s</t>
+  </si>
+  <si>
+    <t>5s</t>
+  </si>
+  <si>
+    <t>Logic</t>
+  </si>
+  <si>
+    <t>12s</t>
+  </si>
+  <si>
+    <t>small</t>
+  </si>
+  <si>
+    <t>medium</t>
+  </si>
+  <si>
+    <t>20s</t>
+  </si>
+  <si>
+    <t>30s</t>
+  </si>
+  <si>
+    <t>50s</t>
+  </si>
+  <si>
+    <t>120s</t>
+  </si>
+  <si>
+    <t>restructure for database</t>
+  </si>
+  <si>
+    <t>normalization</t>
+  </si>
+  <si>
+    <t>16 GB RAM</t>
+  </si>
+  <si>
+    <t>Single Cluster</t>
+  </si>
+  <si>
+    <t>32 GB</t>
+  </si>
+  <si>
+    <t>4 core cluster</t>
+  </si>
+  <si>
+    <t>100 times a day</t>
+  </si>
+  <si>
+    <t>Pizza</t>
+  </si>
+  <si>
+    <t>Raw Ing</t>
+  </si>
+  <si>
+    <t>Dough</t>
+  </si>
+  <si>
+    <t>cutting the veg</t>
+  </si>
+  <si>
+    <t>boil</t>
+  </si>
+  <si>
+    <t>dough</t>
+  </si>
+  <si>
+    <t>veg cut</t>
+  </si>
+  <si>
+    <t>30 min</t>
+  </si>
+  <si>
+    <t>3 min</t>
+  </si>
+  <si>
+    <t>call the logic</t>
+  </si>
+  <si>
+    <t>Execute the SQL query</t>
+  </si>
+  <si>
+    <t>Give the result</t>
+  </si>
+  <si>
+    <t>Store the logic in the view</t>
+  </si>
+  <si>
+    <t>in the morning daily I will refresh it</t>
+  </si>
+  <si>
+    <t>store the data as view</t>
+  </si>
+  <si>
+    <t>Materialized view</t>
+  </si>
+  <si>
+    <t>4 lakh</t>
+  </si>
+  <si>
+    <t>Customer and products summary report</t>
+  </si>
+  <si>
+    <t>customer</t>
+  </si>
+  <si>
+    <t>order_item</t>
+  </si>
+  <si>
+    <t>120 s</t>
+  </si>
+  <si>
+    <t>created a view which will store this logic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">everytime I call this view </t>
+  </si>
+  <si>
+    <t>4 Lakh</t>
+  </si>
+  <si>
+    <t>created a materialized view</t>
+  </si>
+  <si>
+    <t>it will execute at the time of creation and store this 4 Lakh rows a physical value</t>
+  </si>
+  <si>
+    <t>everytiem I call this mv</t>
+  </si>
+  <si>
+    <t>today</t>
+  </si>
+  <si>
+    <t xml:space="preserve">trigger / schdule </t>
+  </si>
+  <si>
+    <t>refresh this view as per your requirement</t>
+  </si>
+  <si>
+    <t>every hour</t>
+  </si>
+  <si>
+    <t>every day</t>
+  </si>
+  <si>
+    <t>every 3 hour</t>
+  </si>
+  <si>
+    <t>Pipeline</t>
+  </si>
+  <si>
+    <t>Source</t>
+  </si>
+  <si>
+    <t>retailmart</t>
+  </si>
+  <si>
+    <t>orders.csv</t>
+  </si>
+  <si>
+    <t>customers.csv</t>
+  </si>
+  <si>
+    <t>order_items.csv</t>
+  </si>
+  <si>
+    <t>products.csv</t>
+  </si>
+  <si>
+    <t>SQL =&gt; postgres</t>
+  </si>
+  <si>
+    <t>Stored Procedure</t>
+  </si>
+  <si>
+    <t>view/MV</t>
+  </si>
+  <si>
+    <t>Manager</t>
+  </si>
+  <si>
+    <t>CEO</t>
+  </si>
+  <si>
+    <t>CFO</t>
+  </si>
+  <si>
+    <t>Executive Summary</t>
+  </si>
+  <si>
+    <t>Order Summary</t>
+  </si>
+  <si>
+    <t>Products Summary</t>
+  </si>
+  <si>
+    <t>Restaurent</t>
+  </si>
+  <si>
+    <t>Create MV</t>
+  </si>
+  <si>
+    <t>with data</t>
+  </si>
+  <si>
+    <t>with no data</t>
+  </si>
+  <si>
+    <t>create mv</t>
+  </si>
+  <si>
+    <t>refreshing</t>
   </si>
 </sst>
 </file>
@@ -1249,12 +1474,18 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -1269,7 +1500,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1283,6 +1514,11 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="18" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1298,6 +1534,55 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>41412</xdr:colOff>
+      <xdr:row>136</xdr:row>
+      <xdr:rowOff>13805</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>297344</xdr:colOff>
+      <xdr:row>144</xdr:row>
+      <xdr:rowOff>62612</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{96471B77-7B8B-1576-9E43-7D826B54CF65}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1642716" y="27235979"/>
+          <a:ext cx="7772400" cy="1650111"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1874,10 +2159,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{347E0D9B-2BE5-DD44-A9D9-43482889CEA9}">
-  <dimension ref="B2:N57"/>
+  <dimension ref="B2:N131"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A42" zoomScale="191" workbookViewId="0">
-      <selection activeCell="D62" sqref="D62"/>
+    <sheetView tabSelected="1" topLeftCell="B130" zoomScale="184" workbookViewId="0">
+      <selection activeCell="F150" sqref="F150"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1886,9 +2171,11 @@
     <col min="3" max="3" width="7.1640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="19.33203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="3.6640625" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="28.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.1640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="19.5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.6640625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="14.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2215,7 +2502,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="49" spans="4:11" x14ac:dyDescent="0.2">
+    <row r="49" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D49" t="s">
         <v>115</v>
       </c>
@@ -2226,7 +2513,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="50" spans="4:11" x14ac:dyDescent="0.2">
+    <row r="50" spans="4:12" x14ac:dyDescent="0.2">
       <c r="F50">
         <v>2</v>
       </c>
@@ -2234,7 +2521,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="51" spans="4:11" x14ac:dyDescent="0.2">
+    <row r="51" spans="4:12" x14ac:dyDescent="0.2">
       <c r="F51">
         <v>3</v>
       </c>
@@ -2242,7 +2529,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="52" spans="4:11" x14ac:dyDescent="0.2">
+    <row r="52" spans="4:12" x14ac:dyDescent="0.2">
       <c r="F52">
         <v>4</v>
       </c>
@@ -2250,12 +2537,12 @@
         <v>16</v>
       </c>
     </row>
-    <row r="54" spans="4:11" x14ac:dyDescent="0.2">
+    <row r="54" spans="4:12" x14ac:dyDescent="0.2">
       <c r="F54" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="57" spans="4:11" x14ac:dyDescent="0.2">
+    <row r="57" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D57" t="s">
         <v>117</v>
       </c>
@@ -2272,7 +2559,427 @@
         <v>122</v>
       </c>
     </row>
+    <row r="60" spans="4:12" x14ac:dyDescent="0.2">
+      <c r="F60" t="s">
+        <v>130</v>
+      </c>
+      <c r="H60" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="61" spans="4:12" x14ac:dyDescent="0.2">
+      <c r="D61" t="s">
+        <v>115</v>
+      </c>
+      <c r="F61">
+        <v>1</v>
+      </c>
+      <c r="G61" t="s">
+        <v>123</v>
+      </c>
+      <c r="H61" t="s">
+        <v>132</v>
+      </c>
+      <c r="J61" t="s">
+        <v>136</v>
+      </c>
+      <c r="L61" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="62" spans="4:12" x14ac:dyDescent="0.2">
+      <c r="F62">
+        <v>2</v>
+      </c>
+      <c r="G62" t="s">
+        <v>124</v>
+      </c>
+      <c r="H62" t="s">
+        <v>133</v>
+      </c>
+      <c r="J62" t="s">
+        <v>138</v>
+      </c>
+      <c r="L62" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="63" spans="4:12" x14ac:dyDescent="0.2">
+      <c r="F63">
+        <v>3</v>
+      </c>
+      <c r="G63" t="s">
+        <v>125</v>
+      </c>
+      <c r="H63" t="s">
+        <v>123</v>
+      </c>
+      <c r="J63" t="s">
+        <v>139</v>
+      </c>
+      <c r="L63" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="64" spans="4:12" x14ac:dyDescent="0.2">
+      <c r="F64">
+        <v>4</v>
+      </c>
+      <c r="G64" t="s">
+        <v>126</v>
+      </c>
+      <c r="H64" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="65" spans="4:10" x14ac:dyDescent="0.2">
+      <c r="F65">
+        <v>5</v>
+      </c>
+      <c r="G65" t="s">
+        <v>127</v>
+      </c>
+      <c r="H65" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="68" spans="4:10" x14ac:dyDescent="0.2">
+      <c r="D68" t="s">
+        <v>117</v>
+      </c>
+      <c r="F68" t="s">
+        <v>128</v>
+      </c>
+      <c r="G68" t="s">
+        <v>129</v>
+      </c>
+      <c r="H68" t="s">
+        <v>135</v>
+      </c>
+      <c r="J68" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="70" spans="4:10" x14ac:dyDescent="0.2">
+      <c r="F70" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="73" spans="4:10" x14ac:dyDescent="0.2">
+      <c r="D73" t="s">
+        <v>143</v>
+      </c>
+      <c r="F73" t="s">
+        <v>144</v>
+      </c>
+      <c r="G73" t="s">
+        <v>143</v>
+      </c>
+      <c r="H73" t="s">
+        <v>145</v>
+      </c>
+      <c r="J73" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="74" spans="4:10" x14ac:dyDescent="0.2">
+      <c r="H74" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="75" spans="4:10" x14ac:dyDescent="0.2">
+      <c r="H75" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="77" spans="4:10" x14ac:dyDescent="0.2">
+      <c r="F77" t="s">
+        <v>148</v>
+      </c>
+      <c r="J77" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="78" spans="4:10" x14ac:dyDescent="0.2">
+      <c r="F78" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="82" spans="4:10" x14ac:dyDescent="0.2">
+      <c r="D82" t="s">
+        <v>72</v>
+      </c>
+      <c r="F82" t="s">
+        <v>152</v>
+      </c>
+      <c r="H82" t="s">
+        <v>153</v>
+      </c>
+      <c r="J82" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="84" spans="4:10" x14ac:dyDescent="0.2">
+      <c r="D84" t="s">
+        <v>158</v>
+      </c>
+      <c r="F84" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="85" spans="4:10" x14ac:dyDescent="0.2">
+      <c r="F85" t="s">
+        <v>156</v>
+      </c>
+      <c r="H85" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="88" spans="4:10" x14ac:dyDescent="0.2">
+      <c r="D88" t="s">
+        <v>117</v>
+      </c>
+      <c r="F88" t="s">
+        <v>135</v>
+      </c>
+      <c r="G88" t="s">
+        <v>159</v>
+      </c>
+      <c r="H88" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="91" spans="4:10" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="93" spans="4:10" x14ac:dyDescent="0.2">
+      <c r="D93" t="s">
+        <v>160</v>
+      </c>
+      <c r="J93" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="95" spans="4:10" x14ac:dyDescent="0.2">
+      <c r="D95" t="s">
+        <v>161</v>
+      </c>
+      <c r="F95" t="s">
+        <v>163</v>
+      </c>
+      <c r="H95" t="s">
+        <v>166</v>
+      </c>
+      <c r="I95" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="96" spans="4:10" x14ac:dyDescent="0.2">
+      <c r="D96" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="97" spans="4:10" x14ac:dyDescent="0.2">
+      <c r="D97" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="98" spans="4:10" x14ac:dyDescent="0.2">
+      <c r="D98" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="100" spans="4:10" x14ac:dyDescent="0.2">
+      <c r="D100" s="6" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="101" spans="4:10" x14ac:dyDescent="0.2">
+      <c r="D101" s="6"/>
+    </row>
+    <row r="102" spans="4:10" x14ac:dyDescent="0.2">
+      <c r="D102" s="6"/>
+    </row>
+    <row r="104" spans="4:10" x14ac:dyDescent="0.2">
+      <c r="D104" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="F104" t="s">
+        <v>163</v>
+      </c>
+      <c r="H104" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="105" spans="4:10" x14ac:dyDescent="0.2">
+      <c r="D105" s="6"/>
+    </row>
+    <row r="108" spans="4:10" x14ac:dyDescent="0.2">
+      <c r="D108" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="F108" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="G108" s="6"/>
+      <c r="I108" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="109" spans="4:10" x14ac:dyDescent="0.2">
+      <c r="D109" s="6"/>
+      <c r="F109" s="6"/>
+      <c r="G109" s="6"/>
+      <c r="I109" t="s">
+        <v>194</v>
+      </c>
+      <c r="J109" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="110" spans="4:10" x14ac:dyDescent="0.2">
+      <c r="D110" s="6"/>
+      <c r="F110" s="6"/>
+      <c r="G110" s="6"/>
+    </row>
+    <row r="111" spans="4:10" x14ac:dyDescent="0.2">
+      <c r="I111" t="s">
+        <v>196</v>
+      </c>
+      <c r="J111" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="112" spans="4:10" x14ac:dyDescent="0.2">
+      <c r="D112" t="s">
+        <v>169</v>
+      </c>
+      <c r="F112" t="s">
+        <v>123</v>
+      </c>
+      <c r="H112" t="s">
+        <v>166</v>
+      </c>
+      <c r="I112" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="114" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="D114" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="115" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="D115" t="s">
+        <v>171</v>
+      </c>
+      <c r="F115" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="117" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="F117" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="119" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="F119" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="121" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="F121" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="124" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="D124" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="125" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="I125" t="s">
+        <v>186</v>
+      </c>
+      <c r="J125" t="s">
+        <v>187</v>
+      </c>
+      <c r="K125" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="126" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="D126" t="s">
+        <v>177</v>
+      </c>
+      <c r="F126" t="s">
+        <v>183</v>
+      </c>
+      <c r="I126" s="7">
+        <v>0.29166666666666669</v>
+      </c>
+    </row>
+    <row r="127" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B127" t="s">
+        <v>178</v>
+      </c>
+      <c r="F127" t="s">
+        <v>184</v>
+      </c>
+      <c r="G127" t="s">
+        <v>185</v>
+      </c>
+      <c r="I127" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="128" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="D128" t="s">
+        <v>179</v>
+      </c>
+      <c r="F128" t="s">
+        <v>66</v>
+      </c>
+      <c r="I128" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="129" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B129" s="7">
+        <v>0.95833333333333337</v>
+      </c>
+      <c r="D129" t="s">
+        <v>180</v>
+      </c>
+      <c r="F129" t="s">
+        <v>64</v>
+      </c>
+      <c r="I129" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="130" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="D130" t="s">
+        <v>181</v>
+      </c>
+      <c r="F130" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="131" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="D131" t="s">
+        <v>182</v>
+      </c>
+      <c r="F131" t="s">
+        <v>65</v>
+      </c>
+    </row>
   </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="D100:D102"/>
+    <mergeCell ref="D104:D105"/>
+    <mergeCell ref="D108:D110"/>
+    <mergeCell ref="F108:G110"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>